--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H2">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I2">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J2">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.367679</v>
+        <v>33.824428</v>
       </c>
       <c r="N2">
-        <v>58.10303699999999</v>
+        <v>101.473284</v>
       </c>
       <c r="O2">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="P2">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="Q2">
-        <v>20.780544727157</v>
+        <v>60.44067872144134</v>
       </c>
       <c r="R2">
-        <v>187.024902544413</v>
+        <v>543.966108492972</v>
       </c>
       <c r="S2">
-        <v>0.004901956252710241</v>
+        <v>0.02353086253264786</v>
       </c>
       <c r="T2">
-        <v>0.004901956252710241</v>
+        <v>0.02353086253264786</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H3">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I3">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J3">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>79.81755000000001</v>
       </c>
       <c r="O3">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="P3">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="Q3">
-        <v>28.54673788888334</v>
+        <v>47.54184259851668</v>
       </c>
       <c r="R3">
-        <v>256.92064099995</v>
+        <v>427.8765833866501</v>
       </c>
       <c r="S3">
-        <v>0.006733936098701904</v>
+        <v>0.01850906684702101</v>
       </c>
       <c r="T3">
-        <v>0.006733936098701905</v>
+        <v>0.01850906684702101</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H4">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I4">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J4">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.27238933333333</v>
+        <v>19.76484733333333</v>
       </c>
       <c r="N4">
-        <v>75.817168</v>
+        <v>59.294542</v>
       </c>
       <c r="O4">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="P4">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="Q4">
-        <v>27.11600171107022</v>
+        <v>35.31769369913178</v>
       </c>
       <c r="R4">
-        <v>244.044015399632</v>
+        <v>317.859243292186</v>
       </c>
       <c r="S4">
-        <v>0.006396437431323647</v>
+        <v>0.01374994147955549</v>
       </c>
       <c r="T4">
-        <v>0.006396437431323647</v>
+        <v>0.0137499414795555</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H5">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I5">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J5">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.80759633333333</v>
+        <v>5.194707333333334</v>
       </c>
       <c r="N5">
-        <v>32.422789</v>
+        <v>15.584122</v>
       </c>
       <c r="O5">
-        <v>0.07301292992347994</v>
+        <v>0.0349282591522781</v>
       </c>
       <c r="P5">
-        <v>0.07301292992347994</v>
+        <v>0.03492825915227811</v>
       </c>
       <c r="Q5">
-        <v>11.59600688331789</v>
+        <v>9.282393097258446</v>
       </c>
       <c r="R5">
-        <v>104.364061949861</v>
+        <v>83.54153787532601</v>
       </c>
       <c r="S5">
-        <v>0.002735400789271219</v>
+        <v>0.003613836253432117</v>
       </c>
       <c r="T5">
-        <v>0.002735400789271219</v>
+        <v>0.003613836253432118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H6">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I6">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J6">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.48431666666667</v>
+        <v>35.151864</v>
       </c>
       <c r="N6">
-        <v>88.45295</v>
+        <v>105.455592</v>
       </c>
       <c r="O6">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="P6">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="Q6">
-        <v>31.63518773939445</v>
+        <v>62.81266658770402</v>
       </c>
       <c r="R6">
-        <v>284.71668965455</v>
+        <v>565.3139992893362</v>
       </c>
       <c r="S6">
-        <v>0.007462475521256597</v>
+        <v>0.02445432867483622</v>
       </c>
       <c r="T6">
-        <v>0.007462475521256598</v>
+        <v>0.02445432867483623</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H7">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I7">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J7">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.48521533333334</v>
+        <v>28.18336033333333</v>
       </c>
       <c r="N7">
-        <v>109.455646</v>
+        <v>84.55008099999999</v>
       </c>
       <c r="O7">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="P7">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="Q7">
-        <v>39.14679963016156</v>
+        <v>50.36068687392478</v>
       </c>
       <c r="R7">
-        <v>352.321196671454</v>
+        <v>453.246181865323</v>
       </c>
       <c r="S7">
-        <v>0.009234401780136531</v>
+        <v>0.01960650384721205</v>
       </c>
       <c r="T7">
-        <v>0.009234401780136531</v>
+        <v>0.01960650384721206</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>37.675054</v>
       </c>
       <c r="I8">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J8">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.367679</v>
+        <v>33.824428</v>
       </c>
       <c r="N8">
-        <v>58.10303699999999</v>
+        <v>101.473284</v>
       </c>
       <c r="O8">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="P8">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="Q8">
-        <v>243.226117393222</v>
+        <v>424.7790504730373</v>
       </c>
       <c r="R8">
-        <v>2189.035056538998</v>
+        <v>3823.011454257336</v>
       </c>
       <c r="S8">
-        <v>0.05737500160041553</v>
+        <v>0.1653756651128382</v>
       </c>
       <c r="T8">
-        <v>0.05737500160041555</v>
+        <v>0.1653756651128382</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>37.675054</v>
       </c>
       <c r="I9">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J9">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>79.81755000000001</v>
       </c>
       <c r="O9">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="P9">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="Q9">
         <v>334.1256118219667</v>
@@ -1013,10 +1013,10 @@
         <v>3007.130506397701</v>
       </c>
       <c r="S9">
-        <v>0.07881743012832958</v>
+        <v>0.1300823221502048</v>
       </c>
       <c r="T9">
-        <v>0.07881743012832959</v>
+        <v>0.1300823221502048</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>37.675054</v>
       </c>
       <c r="I10">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J10">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.27238933333333</v>
+        <v>19.76484733333333</v>
       </c>
       <c r="N10">
-        <v>75.817168</v>
+        <v>59.294542</v>
       </c>
       <c r="O10">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="P10">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="Q10">
-        <v>317.3795442807858</v>
+        <v>248.2138968616964</v>
       </c>
       <c r="R10">
-        <v>2856.415898527072</v>
+        <v>2233.925071755268</v>
       </c>
       <c r="S10">
-        <v>0.074867173214009</v>
+        <v>0.09663503470343109</v>
       </c>
       <c r="T10">
-        <v>0.07486717321400901</v>
+        <v>0.09663503470343113</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>37.675054</v>
       </c>
       <c r="I11">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J11">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.80759633333333</v>
+        <v>5.194707333333334</v>
       </c>
       <c r="N11">
-        <v>32.422789</v>
+        <v>15.584122</v>
       </c>
       <c r="O11">
-        <v>0.07301292992347994</v>
+        <v>0.0349282591522781</v>
       </c>
       <c r="P11">
-        <v>0.07301292992347994</v>
+        <v>0.03492825915227811</v>
       </c>
       <c r="Q11">
-        <v>135.7255918228451</v>
+        <v>65.23695976584312</v>
       </c>
       <c r="R11">
-        <v>1221.530326405606</v>
+        <v>587.132637892588</v>
       </c>
       <c r="S11">
-        <v>0.03201652902867944</v>
+        <v>0.02539815840541451</v>
       </c>
       <c r="T11">
-        <v>0.03201652902867944</v>
+        <v>0.02539815840541452</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>37.675054</v>
       </c>
       <c r="I12">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J12">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.48431666666667</v>
+        <v>35.151864</v>
       </c>
       <c r="N12">
-        <v>88.45295</v>
+        <v>105.455592</v>
       </c>
       <c r="O12">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="P12">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="Q12">
-        <v>370.2744075232556</v>
+        <v>441.4494581335521</v>
       </c>
       <c r="R12">
-        <v>3332.4696677093</v>
+        <v>3973.045123201969</v>
       </c>
       <c r="S12">
-        <v>0.08734462792042137</v>
+        <v>0.1718658151131494</v>
       </c>
       <c r="T12">
-        <v>0.08734462792042139</v>
+        <v>0.1718658151131494</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>37.675054</v>
       </c>
       <c r="I13">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J13">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.48521533333334</v>
+        <v>28.18336033333333</v>
       </c>
       <c r="N13">
-        <v>109.455646</v>
+        <v>84.55008099999999</v>
       </c>
       <c r="O13">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="P13">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="Q13">
-        <v>458.1941526283205</v>
+        <v>353.9365408199304</v>
       </c>
       <c r="R13">
-        <v>4123.747373654885</v>
+        <v>3185.428867379374</v>
       </c>
       <c r="S13">
-        <v>0.1080841585685877</v>
+        <v>0.1377951449833765</v>
       </c>
       <c r="T13">
-        <v>0.1080841585685877</v>
+        <v>0.1377951449833766</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H14">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I14">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J14">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.367679</v>
+        <v>33.824428</v>
       </c>
       <c r="N14">
-        <v>58.10303699999999</v>
+        <v>101.473284</v>
       </c>
       <c r="O14">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="P14">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="Q14">
-        <v>5.346712479562999</v>
+        <v>7.682305560643999</v>
       </c>
       <c r="R14">
-        <v>48.12041231606699</v>
+        <v>69.140750045796</v>
       </c>
       <c r="S14">
-        <v>0.001261244640829174</v>
+        <v>0.002990887592683196</v>
       </c>
       <c r="T14">
-        <v>0.001261244640829174</v>
+        <v>0.002990887592683197</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H15">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I15">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J15">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>79.81755000000001</v>
       </c>
       <c r="O15">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="P15">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="Q15">
-        <v>7.344908505783334</v>
+        <v>6.04280046955</v>
       </c>
       <c r="R15">
-        <v>66.10417655205001</v>
+        <v>54.38520422595001</v>
       </c>
       <c r="S15">
-        <v>0.00173260232819869</v>
+        <v>0.002352592826042475</v>
       </c>
       <c r="T15">
-        <v>0.001732602328198691</v>
+        <v>0.002352592826042476</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H16">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I16">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J16">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.27238933333333</v>
+        <v>19.76484733333333</v>
       </c>
       <c r="N16">
-        <v>75.817168</v>
+        <v>59.294542</v>
       </c>
       <c r="O16">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="P16">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="Q16">
-        <v>6.976788464787555</v>
+        <v>4.489051420888666</v>
       </c>
       <c r="R16">
-        <v>62.79109618308799</v>
+        <v>40.401462787998</v>
       </c>
       <c r="S16">
-        <v>0.001645765897277369</v>
+        <v>0.001747684740168976</v>
       </c>
       <c r="T16">
-        <v>0.001645765897277369</v>
+        <v>0.001747684740168976</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H17">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I17">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J17">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.80759633333333</v>
+        <v>5.194707333333334</v>
       </c>
       <c r="N17">
-        <v>32.422789</v>
+        <v>15.584122</v>
       </c>
       <c r="O17">
-        <v>0.07301292992347994</v>
+        <v>0.0349282591522781</v>
       </c>
       <c r="P17">
-        <v>0.07301292992347994</v>
+        <v>0.03492825915227811</v>
       </c>
       <c r="Q17">
-        <v>2.983584671633222</v>
+        <v>1.179837513668667</v>
       </c>
       <c r="R17">
-        <v>26.852262044699</v>
+        <v>10.618537623018</v>
       </c>
       <c r="S17">
-        <v>0.0007038026061698824</v>
+        <v>0.000459336243938466</v>
       </c>
       <c r="T17">
-        <v>0.0007038026061698824</v>
+        <v>0.0004593362439384662</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H18">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I18">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J18">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>29.48431666666667</v>
+        <v>35.151864</v>
       </c>
       <c r="N18">
-        <v>88.45295</v>
+        <v>105.455592</v>
       </c>
       <c r="O18">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="P18">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="Q18">
-        <v>8.139548568161111</v>
+        <v>7.983796807272</v>
       </c>
       <c r="R18">
-        <v>73.25593711344999</v>
+        <v>71.854171265448</v>
       </c>
       <c r="S18">
-        <v>0.001920051255720607</v>
+        <v>0.003108264651135775</v>
       </c>
       <c r="T18">
-        <v>0.001920051255720608</v>
+        <v>0.003108264651135775</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H19">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I19">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J19">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>36.48521533333334</v>
+        <v>28.18336033333333</v>
       </c>
       <c r="N19">
-        <v>109.455646</v>
+        <v>84.55008099999999</v>
       </c>
       <c r="O19">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="P19">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="Q19">
-        <v>10.07224232404289</v>
+        <v>6.401089348987665</v>
       </c>
       <c r="R19">
-        <v>90.65018091638599</v>
+        <v>57.609804140889</v>
       </c>
       <c r="S19">
-        <v>0.002375957506765012</v>
+        <v>0.002492082430516975</v>
       </c>
       <c r="T19">
-        <v>0.002375957506765012</v>
+        <v>0.002492082430516975</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H20">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I20">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J20">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.367679</v>
+        <v>33.824428</v>
       </c>
       <c r="N20">
-        <v>58.10303699999999</v>
+        <v>101.473284</v>
       </c>
       <c r="O20">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="P20">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="Q20">
-        <v>269.472021001496</v>
+        <v>82.21809697167734</v>
       </c>
       <c r="R20">
-        <v>2425.248189013464</v>
+        <v>739.962872745096</v>
       </c>
       <c r="S20">
-        <v>0.06356619018521115</v>
+        <v>0.03200928213352655</v>
       </c>
       <c r="T20">
-        <v>0.06356619018521115</v>
+        <v>0.03200928213352655</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H21">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I21">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J21">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>79.81755000000001</v>
       </c>
       <c r="O21">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="P21">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="Q21">
-        <v>370.1802456537334</v>
+        <v>64.67167324496668</v>
       </c>
       <c r="R21">
-        <v>3331.6222108836</v>
+        <v>582.0450592047001</v>
       </c>
       <c r="S21">
-        <v>0.08732241592496448</v>
+        <v>0.02517808014528103</v>
       </c>
       <c r="T21">
-        <v>0.08732241592496449</v>
+        <v>0.02517808014528103</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H22">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I22">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J22">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.27238933333333</v>
+        <v>19.76484733333333</v>
       </c>
       <c r="N22">
-        <v>75.817168</v>
+        <v>59.294542</v>
       </c>
       <c r="O22">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="P22">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="Q22">
-        <v>351.6271531136995</v>
+        <v>48.04303371168312</v>
       </c>
       <c r="R22">
-        <v>3164.644378023296</v>
+        <v>432.387303405148</v>
       </c>
       <c r="S22">
-        <v>0.08294589696562857</v>
+        <v>0.01870419137963683</v>
       </c>
       <c r="T22">
-        <v>0.08294589696562858</v>
+        <v>0.01870419137963683</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H23">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I23">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J23">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.80759633333333</v>
+        <v>5.194707333333334</v>
       </c>
       <c r="N23">
-        <v>32.422789</v>
+        <v>15.584122</v>
       </c>
       <c r="O23">
-        <v>0.07301292992347994</v>
+        <v>0.0349282591522781</v>
       </c>
       <c r="P23">
-        <v>0.07301292992347994</v>
+        <v>0.03492825915227811</v>
       </c>
       <c r="Q23">
-        <v>150.3713907129342</v>
+        <v>12.62693788262978</v>
       </c>
       <c r="R23">
-        <v>1353.342516416408</v>
+        <v>113.642440943668</v>
       </c>
       <c r="S23">
-        <v>0.03547135017931975</v>
+        <v>0.004915939824134381</v>
       </c>
       <c r="T23">
-        <v>0.03547135017931975</v>
+        <v>0.004915939824134382</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H24">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I24">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J24">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>29.48431666666667</v>
+        <v>35.151864</v>
       </c>
       <c r="N24">
-        <v>88.45295</v>
+        <v>105.455592</v>
       </c>
       <c r="O24">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="P24">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="Q24">
-        <v>410.2297647547111</v>
+        <v>85.44473724987202</v>
       </c>
       <c r="R24">
-        <v>3692.0678827924</v>
+        <v>769.0026352488482</v>
       </c>
       <c r="S24">
-        <v>0.09676976165880921</v>
+        <v>0.03326548293131092</v>
       </c>
       <c r="T24">
-        <v>0.09676976165880921</v>
+        <v>0.03326548293131092</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H25">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I25">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J25">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>36.48521533333334</v>
+        <v>28.18336033333333</v>
       </c>
       <c r="N25">
-        <v>109.455646</v>
+        <v>84.55008099999999</v>
       </c>
       <c r="O25">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="P25">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="Q25">
-        <v>507.6367030116569</v>
+        <v>68.50617704085711</v>
       </c>
       <c r="R25">
-        <v>4568.730327104911</v>
+        <v>616.555593367714</v>
       </c>
       <c r="S25">
-        <v>0.119747241619765</v>
+        <v>0.02667093534827869</v>
       </c>
       <c r="T25">
-        <v>0.119747241619765</v>
+        <v>0.02667093534827869</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H26">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I26">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J26">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.367679</v>
+        <v>33.824428</v>
       </c>
       <c r="N26">
-        <v>58.10303699999999</v>
+        <v>101.473284</v>
       </c>
       <c r="O26">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="P26">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="Q26">
-        <v>1.636278360315</v>
+        <v>5.349727906526667</v>
       </c>
       <c r="R26">
-        <v>14.726505242835</v>
+        <v>48.14755115873999</v>
       </c>
       <c r="S26">
-        <v>0.0003859843447240533</v>
+        <v>0.002082764697857235</v>
       </c>
       <c r="T26">
-        <v>0.0003859843447240533</v>
+        <v>0.002082764697857236</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H27">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I27">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J27">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>79.81755000000001</v>
       </c>
       <c r="O27">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="P27">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="Q27">
-        <v>2.247795237250001</v>
+        <v>4.208025579083334</v>
       </c>
       <c r="R27">
-        <v>20.23015713525001</v>
+        <v>37.87223021175001</v>
       </c>
       <c r="S27">
-        <v>0.0005302360483192878</v>
+        <v>0.001638275306133335</v>
       </c>
       <c r="T27">
-        <v>0.0005302360483192878</v>
+        <v>0.001638275306133335</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H28">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I28">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J28">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>25.27238933333333</v>
+        <v>19.76484733333333</v>
       </c>
       <c r="N28">
-        <v>75.817168</v>
+        <v>59.294542</v>
       </c>
       <c r="O28">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="P28">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="Q28">
-        <v>2.135137812826667</v>
+        <v>3.126041195652222</v>
       </c>
       <c r="R28">
-        <v>19.21624031544</v>
+        <v>28.13437076087</v>
       </c>
       <c r="S28">
-        <v>0.0005036611065496191</v>
+        <v>0.001217035400699293</v>
       </c>
       <c r="T28">
-        <v>0.0005036611065496191</v>
+        <v>0.001217035400699293</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H29">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I29">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J29">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.80759633333333</v>
+        <v>5.194707333333334</v>
       </c>
       <c r="N29">
-        <v>32.422789</v>
+        <v>15.584122</v>
       </c>
       <c r="O29">
-        <v>0.07301292992347994</v>
+        <v>0.0349282591522781</v>
       </c>
       <c r="P29">
-        <v>0.07301292992347994</v>
+        <v>0.03492825915227811</v>
       </c>
       <c r="Q29">
-        <v>0.9130797762216669</v>
+        <v>0.8216035696855556</v>
       </c>
       <c r="R29">
-        <v>8.217717985995002</v>
+        <v>7.39443212717</v>
       </c>
       <c r="S29">
-        <v>0.0002153878628804076</v>
+        <v>0.0003198680270237464</v>
       </c>
       <c r="T29">
-        <v>0.0002153878628804075</v>
+        <v>0.0003198680270237465</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H30">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I30">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J30">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>29.48431666666667</v>
+        <v>35.151864</v>
       </c>
       <c r="N30">
-        <v>88.45295</v>
+        <v>105.455592</v>
       </c>
       <c r="O30">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="P30">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="Q30">
-        <v>2.490982493583334</v>
+        <v>5.559677396680001</v>
       </c>
       <c r="R30">
-        <v>22.41884244225</v>
+        <v>50.03709657012001</v>
       </c>
       <c r="S30">
-        <v>0.0005876018829215322</v>
+        <v>0.002164502572019212</v>
       </c>
       <c r="T30">
-        <v>0.0005876018829215322</v>
+        <v>0.002164502572019212</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H31">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I31">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J31">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>36.48521533333334</v>
+        <v>28.18336033333333</v>
       </c>
       <c r="N31">
-        <v>109.455646</v>
+        <v>84.55008099999999</v>
       </c>
       <c r="O31">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="P31">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="Q31">
-        <v>3.082453417436668</v>
+        <v>4.457527242587222</v>
       </c>
       <c r="R31">
-        <v>27.74208075693</v>
+        <v>40.117745183285</v>
       </c>
       <c r="S31">
-        <v>0.0007271249142735509</v>
+        <v>0.001735411696223114</v>
       </c>
       <c r="T31">
-        <v>0.0007271249142735507</v>
+        <v>0.001735411696223114</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H32">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I32">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J32">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>19.367679</v>
+        <v>33.824428</v>
       </c>
       <c r="N32">
-        <v>58.10303699999999</v>
+        <v>101.473284</v>
       </c>
       <c r="O32">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="P32">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="Q32">
-        <v>14.20967872872</v>
+        <v>3.69819383538</v>
       </c>
       <c r="R32">
-        <v>127.88710855848</v>
+        <v>33.28374451841999</v>
       </c>
       <c r="S32">
-        <v>0.003351944061515575</v>
+        <v>0.001439786789299266</v>
       </c>
       <c r="T32">
-        <v>0.003351944061515575</v>
+        <v>0.001439786789299267</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H33">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I33">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J33">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>79.81755000000001</v>
       </c>
       <c r="O33">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="P33">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="Q33">
-        <v>19.520180028</v>
+        <v>2.908950609750001</v>
       </c>
       <c r="R33">
-        <v>175.681620252</v>
+        <v>26.18055548775</v>
       </c>
       <c r="S33">
-        <v>0.004604646788552938</v>
+        <v>0.001132517343621536</v>
       </c>
       <c r="T33">
-        <v>0.004604646788552938</v>
+        <v>0.001132517343621536</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H34">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I34">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J34">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>25.27238933333333</v>
+        <v>19.76484733333333</v>
       </c>
       <c r="N34">
-        <v>75.817168</v>
+        <v>59.294542</v>
       </c>
       <c r="O34">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="P34">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="Q34">
-        <v>18.54184660608</v>
+        <v>2.16098958319</v>
       </c>
       <c r="R34">
-        <v>166.87661945472</v>
+        <v>19.44890624871</v>
       </c>
       <c r="S34">
-        <v>0.004373866137815287</v>
+        <v>0.0008413199502752912</v>
       </c>
       <c r="T34">
-        <v>0.004373866137815287</v>
+        <v>0.0008413199502752915</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H35">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I35">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J35">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.80759633333333</v>
+        <v>5.194707333333334</v>
       </c>
       <c r="N35">
-        <v>32.422789</v>
+        <v>15.584122</v>
       </c>
       <c r="O35">
-        <v>0.07301292992347994</v>
+        <v>0.0349282591522781</v>
       </c>
       <c r="P35">
-        <v>0.07301292992347994</v>
+        <v>0.03492825915227811</v>
       </c>
       <c r="Q35">
-        <v>7.929317277840001</v>
+        <v>0.56796332629</v>
       </c>
       <c r="R35">
-        <v>71.36385550056001</v>
+        <v>5.11166993661</v>
       </c>
       <c r="S35">
-        <v>0.001870459457159228</v>
+        <v>0.0002211203983348766</v>
       </c>
       <c r="T35">
-        <v>0.001870459457159228</v>
+        <v>0.0002211203983348767</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H36">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I36">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J36">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>29.48431666666667</v>
+        <v>35.151864</v>
       </c>
       <c r="N36">
-        <v>88.45295</v>
+        <v>105.455592</v>
       </c>
       <c r="O36">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="P36">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="Q36">
-        <v>21.632053452</v>
+        <v>3.84332905044</v>
       </c>
       <c r="R36">
-        <v>194.688481068</v>
+        <v>34.58996145396</v>
       </c>
       <c r="S36">
-        <v>0.005102820020854231</v>
+        <v>0.001496291065334334</v>
       </c>
       <c r="T36">
-        <v>0.005102820020854231</v>
+        <v>0.001496291065334334</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H37">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I37">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J37">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>36.48521533333334</v>
+        <v>28.18336033333333</v>
       </c>
       <c r="N37">
-        <v>109.455646</v>
+        <v>84.55008099999999</v>
       </c>
       <c r="O37">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="P37">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="Q37">
-        <v>26.76847278576</v>
+        <v>3.081427702045</v>
       </c>
       <c r="R37">
-        <v>240.91625507184</v>
+        <v>27.732849318405</v>
       </c>
       <c r="S37">
-        <v>0.006314458271932517</v>
+        <v>0.001199666403405087</v>
       </c>
       <c r="T37">
-        <v>0.006314458271932516</v>
+        <v>0.001199666403405087</v>
       </c>
     </row>
   </sheetData>
